--- a/PPT data/3 week/test/인원별 맞은개수 2nd.xlsx
+++ b/PPT data/3 week/test/인원별 맞은개수 2nd.xlsx
@@ -884,7 +884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
